--- a/AutomationFramework/TestData/DemoFile.xlsx
+++ b/AutomationFramework/TestData/DemoFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationFramework\AutomationFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84516F36-365F-4C6D-868B-BCEFB802F621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EF644A-BB8B-4329-BA0A-71CD738793B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,21 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Username1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Password1</t>
-  </si>
-  <si>
-    <t>Username2</t>
-  </si>
-  <si>
-    <t>Username3</t>
-  </si>
-  <si>
-    <t>Username4</t>
   </si>
   <si>
     <t>Password2</t>
@@ -375,7 +363,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -384,35 +372,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
